--- a/data/ams_weekly_data/White_Mulberry/business_report_week5.xlsx
+++ b/data/ams_weekly_data/White_Mulberry/business_report_week5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\raw\sales\Week 5\White_Mulberry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop\D\Nitesh\Weekly Report - B2B + B2C\FastAPI\data\ams_weekly_data\White_Mulberry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0745754F-430A-4699-9C5D-634CE9D1B950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C5B62E-9914-4C33-A071-BC11EABB8A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CB7566A-407F-46A9-850D-F074380E65B9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="170">
   <si>
     <t>SKU</t>
   </si>
@@ -1390,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A924377-064D-4D8C-8ECE-6EC4E2F194EC}">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4281,6 +4281,126 @@
       </c>
       <c r="X40" s="3"/>
     </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" t="s">
+        <v>168</v>
+      </c>
+      <c r="P41">
+        <v>45</v>
+      </c>
+      <c r="T41" s="3">
+        <v>99114.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s">
+        <v>156</v>
+      </c>
+      <c r="P42">
+        <v>40</v>
+      </c>
+      <c r="T42" s="3">
+        <v>67423.78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="P43">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3">
+        <v>7855.92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="T44" s="3">
+        <v>1397.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>124</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
